--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agt-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agt-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Agt</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05671333333333334</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H2">
-        <v>0.17014</v>
+        <v>0.174139</v>
       </c>
       <c r="I2">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J2">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>34.682839</v>
+        <v>0.045282</v>
       </c>
       <c r="N2">
-        <v>104.048517</v>
+        <v>0.135846</v>
       </c>
       <c r="O2">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858775</v>
       </c>
       <c r="P2">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858776</v>
       </c>
       <c r="Q2">
-        <v>1.966979409153333</v>
+        <v>0.002628454066</v>
       </c>
       <c r="R2">
-        <v>17.70281468238</v>
+        <v>0.023656086594</v>
       </c>
       <c r="S2">
-        <v>0.02963737589996325</v>
+        <v>3.48949751013943E-05</v>
       </c>
       <c r="T2">
-        <v>0.02963737589996325</v>
+        <v>3.48949751013943E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,108 +599,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05671333333333334</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H3">
-        <v>0.17014</v>
+        <v>0.174139</v>
       </c>
       <c r="I3">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J3">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2799113333333333</v>
+        <v>34.682839</v>
       </c>
       <c r="N3">
-        <v>0.839734</v>
+        <v>104.048517</v>
       </c>
       <c r="O3">
-        <v>0.008005987248276263</v>
+        <v>0.9681988800594137</v>
       </c>
       <c r="P3">
-        <v>0.008005987248276263</v>
+        <v>0.9681988800594138</v>
       </c>
       <c r="Q3">
-        <v>0.01587470475111111</v>
+        <v>2.013211633540333</v>
       </c>
       <c r="R3">
-        <v>0.14287234276</v>
+        <v>18.118904701863</v>
       </c>
       <c r="S3">
-        <v>0.0002391914169615674</v>
+        <v>0.026727105767207</v>
       </c>
       <c r="T3">
-        <v>0.0002391914169615674</v>
+        <v>0.026727105767207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.761113666666667</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H4">
-        <v>5.283341</v>
+        <v>0.174139</v>
       </c>
       <c r="I4">
-        <v>0.9277541615420762</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J4">
-        <v>0.9277541615420761</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>34.682839</v>
+        <v>1.093898333333333</v>
       </c>
       <c r="N4">
-        <v>104.048517</v>
+        <v>3.281695</v>
       </c>
       <c r="O4">
-        <v>0.9919940127517238</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="P4">
-        <v>0.9919940127517238</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="Q4">
-        <v>61.08042176169967</v>
+        <v>0.06349678728944445</v>
       </c>
       <c r="R4">
-        <v>549.723795855297</v>
+        <v>0.5714710856049999</v>
       </c>
       <c r="S4">
-        <v>0.9203265735552352</v>
+        <v>0.00084297414215634</v>
       </c>
       <c r="T4">
-        <v>0.9203265735552352</v>
+        <v>0.0008429741421563399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,72 +729,72 @@
         <v>5.283341</v>
       </c>
       <c r="I5">
-        <v>0.9277541615420762</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J5">
-        <v>0.9277541615420761</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2799113333333333</v>
+        <v>0.045282</v>
       </c>
       <c r="N5">
-        <v>0.839734</v>
+        <v>0.135846</v>
       </c>
       <c r="O5">
-        <v>0.008005987248276263</v>
+        <v>0.001264082841858775</v>
       </c>
       <c r="P5">
-        <v>0.008005987248276263</v>
+        <v>0.001264082841858776</v>
       </c>
       <c r="Q5">
-        <v>0.4929556745882223</v>
+        <v>0.07974674905399999</v>
       </c>
       <c r="R5">
-        <v>4.436601071294</v>
+        <v>0.717720741486</v>
       </c>
       <c r="S5">
-        <v>0.007427587986841099</v>
+        <v>0.001058706278588803</v>
       </c>
       <c r="T5">
-        <v>0.007427587986841098</v>
+        <v>0.001058706278588804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.08042766666666666</v>
+        <v>1.761113666666667</v>
       </c>
       <c r="H6">
-        <v>0.241283</v>
+        <v>5.283341</v>
       </c>
       <c r="I6">
-        <v>0.04236927114099899</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J6">
-        <v>0.04236927114099899</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,54 +809,54 @@
         <v>104.048517</v>
       </c>
       <c r="O6">
-        <v>0.9919940127517238</v>
+        <v>0.9681988800594137</v>
       </c>
       <c r="P6">
-        <v>0.9919940127517238</v>
+        <v>0.9681988800594138</v>
       </c>
       <c r="Q6">
-        <v>2.789459814145667</v>
+        <v>61.08042176169967</v>
       </c>
       <c r="R6">
-        <v>25.105138327311</v>
+        <v>549.723795855297</v>
       </c>
       <c r="S6">
-        <v>0.04203006329652539</v>
+        <v>0.8108948237397778</v>
       </c>
       <c r="T6">
-        <v>0.04203006329652539</v>
+        <v>0.8108948237397779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.08042766666666666</v>
+        <v>1.761113666666667</v>
       </c>
       <c r="H7">
-        <v>0.241283</v>
+        <v>5.283341</v>
       </c>
       <c r="I7">
-        <v>0.04236927114099899</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J7">
-        <v>0.04236927114099899</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +865,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2799113333333333</v>
+        <v>1.093898333333333</v>
       </c>
       <c r="N7">
-        <v>0.839734</v>
+        <v>3.281695</v>
       </c>
       <c r="O7">
-        <v>0.008005987248276263</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="P7">
-        <v>0.008005987248276263</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="Q7">
-        <v>0.02251261541355555</v>
+        <v>1.926479304777222</v>
       </c>
       <c r="R7">
-        <v>0.202613538722</v>
+        <v>17.338313742995</v>
       </c>
       <c r="S7">
-        <v>0.0003392078444735974</v>
+        <v>0.02557565994518413</v>
       </c>
       <c r="T7">
-        <v>0.0003392078444735974</v>
+        <v>0.02557565994518413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2331273333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.6993819999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="J8">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.045282</v>
+      </c>
+      <c r="N8">
+        <v>0.135846</v>
+      </c>
+      <c r="O8">
+        <v>0.001264082841858775</v>
+      </c>
+      <c r="P8">
+        <v>0.001264082841858776</v>
+      </c>
+      <c r="Q8">
+        <v>0.010556471908</v>
+      </c>
+      <c r="R8">
+        <v>0.09500824717199999</v>
+      </c>
+      <c r="S8">
+        <v>0.0001401461905510158</v>
+      </c>
+      <c r="T8">
+        <v>0.0001401461905510158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2331273333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.6993819999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="J9">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>34.682839</v>
+      </c>
+      <c r="N9">
+        <v>104.048517</v>
+      </c>
+      <c r="O9">
+        <v>0.9681988800594137</v>
+      </c>
+      <c r="P9">
+        <v>0.9681988800594138</v>
+      </c>
+      <c r="Q9">
+        <v>8.085517768499333</v>
+      </c>
+      <c r="R9">
+        <v>72.76965991649399</v>
+      </c>
+      <c r="S9">
+        <v>0.1073421616391547</v>
+      </c>
+      <c r="T9">
+        <v>0.1073421616391547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2331273333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.6993819999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="J10">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.093898333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.281695</v>
+      </c>
+      <c r="O10">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="P10">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="Q10">
+        <v>0.2550176013877778</v>
+      </c>
+      <c r="R10">
+        <v>2.29515841249</v>
+      </c>
+      <c r="S10">
+        <v>0.003385576703033699</v>
+      </c>
+      <c r="T10">
+        <v>0.003385576703033699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.151385</v>
+      </c>
+      <c r="I11">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J11">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.045282</v>
+      </c>
+      <c r="N11">
+        <v>0.135846</v>
+      </c>
+      <c r="O11">
+        <v>0.001264082841858775</v>
+      </c>
+      <c r="P11">
+        <v>0.001264082841858776</v>
+      </c>
+      <c r="Q11">
+        <v>0.002285005189999999</v>
+      </c>
+      <c r="R11">
+        <v>0.02056504671</v>
+      </c>
+      <c r="S11">
+        <v>3.033539761756169E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.033539761756169E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.151385</v>
+      </c>
+      <c r="I12">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J12">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>34.682839</v>
+      </c>
+      <c r="N12">
+        <v>104.048517</v>
+      </c>
+      <c r="O12">
+        <v>0.9681988800594137</v>
+      </c>
+      <c r="P12">
+        <v>0.9681988800594138</v>
+      </c>
+      <c r="Q12">
+        <v>1.750153860671666</v>
+      </c>
+      <c r="R12">
+        <v>15.751384746045</v>
+      </c>
+      <c r="S12">
+        <v>0.02323478891327405</v>
+      </c>
+      <c r="T12">
+        <v>0.02323478891327406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.151385</v>
+      </c>
+      <c r="I13">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J13">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.093898333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.281695</v>
+      </c>
+      <c r="O13">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="P13">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="Q13">
+        <v>0.05519993306388889</v>
+      </c>
+      <c r="R13">
+        <v>0.496799397575</v>
+      </c>
+      <c r="S13">
+        <v>0.0007328263083533127</v>
+      </c>
+      <c r="T13">
+        <v>0.0007328263083533127</v>
       </c>
     </row>
   </sheetData>
